--- a/MS Excell/version-2.xlsx
+++ b/MS Excell/version-2.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="version3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -55,8 +56,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -333,7 +362,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
